--- a/data/outputs/数学期刊(上)_altmetric/35.Arnold Mathematical Journal.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/35.Arnold Mathematical Journal.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -649,6 +654,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -768,6 +776,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -885,6 +896,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1002,6 +1016,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1119,6 +1136,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1236,6 +1256,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1351,6 +1374,9 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1466,6 +1492,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1581,6 +1610,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1698,6 +1730,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1815,6 +1850,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1928,6 +1966,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2045,6 +2086,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2164,6 +2208,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2281,6 +2328,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2398,6 +2448,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2517,6 +2570,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2634,6 +2690,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2753,6 +2812,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2868,6 +2930,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2985,6 +3050,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3102,6 +3170,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3219,6 +3290,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3336,6 +3410,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3453,6 +3530,9 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3570,6 +3650,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3685,6 +3768,9 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
         <v>0</v>
       </c>
     </row>
